--- a/cat-zson/src/main/resources/excel/zy.资源回收.xlsx
+++ b/cat-zson/src/main/resources/excel/zy.资源回收.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="24225" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="recycle" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>key</t>
   </si>
@@ -216,6 +216,12 @@
     <t>description</t>
   </si>
   <si>
+    <t>resId</t>
+  </si>
+  <si>
+    <t>resRate</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
     <t>none</t>
   </si>
   <si>
+    <t>server</t>
+  </si>
+  <si>
     <t>道具名</t>
   </si>
   <si>
@@ -249,10 +258,16 @@
     <t>描述</t>
   </si>
   <si>
+    <t>转化资源id</t>
+  </si>
+  <si>
+    <t>转化比例</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
-    <t>唯一id</t>
+    <t>需要回收的唯一资源id</t>
   </si>
   <si>
     <t xml:space="preserve">a:xx活动结束后回收掉
@@ -262,12 +277,20 @@
 </t>
   </si>
   <si>
-    <t>0:不主动刷新
-1:主动刷新
+    <t>0:不主动刷新,被动刷新,依赖其他模块状态或事件
+1:主动刷新,登录时检测或客户端请求刷新.
 当配置主动刷新时,倒计时结束,客户端主动请求刷新最新的资源回收信息</t>
   </si>
   <si>
     <t>具体描述, 不需要生成</t>
+  </si>
+  <si>
+    <t>转化成的资源id
+不填则表示无转化</t>
+  </si>
+  <si>
+    <t>百分比,结果向下取整
+如1:1.5, 则150</t>
   </si>
   <si>
     <t>true</t>
@@ -314,10 +337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -347,57 +370,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,8 +469,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,75 +485,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -500,6 +512,17 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -522,187 +545,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,13 +769,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,63 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -843,6 +846,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,10 +874,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,16 +886,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,115 +904,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1364,22 +1387,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
+    <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,48 +1423,66 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
+    <row r="2" ht="16.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1447,114 +1490,150 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" ht="81" customHeight="1" spans="1:6">
+    <row r="5" ht="81" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="16.5" spans="1:6">
+    <row r="6" customFormat="1" ht="16.5" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3">
-        <v>100101</v>
+        <v>200002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="16.5" spans="1:6">
+    <row r="7" customFormat="1" ht="16.5" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3">
-        <v>100102</v>
+        <v>200003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="16.5" spans="1:6">
+    <row r="8" customFormat="1" ht="16.5" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
-        <v>100103</v>
+        <v>200004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>180</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="33" spans="1:6">
+    <row r="9" customFormat="1" ht="33" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3">
-        <v>100104</v>
+        <v>200005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/cat-zson/src/main/resources/excel/zy.资源回收.xlsx
+++ b/cat-zson/src/main/resources/excel/zy.资源回收.xlsx
@@ -338,9 +338,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -370,6 +370,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -378,37 +386,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +446,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -477,31 +477,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,16 +513,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -545,19 +545,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,24 +677,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -599,133 +689,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,6 +799,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -832,17 +847,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,15 +866,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -874,10 +874,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,133 +886,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1390,7 +1390,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/cat-zson/src/main/resources/excel/zy.资源回收.xlsx
+++ b/cat-zson/src/main/resources/excel/zy.资源回收.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="recycle" sheetId="1" r:id="rId1"/>
@@ -337,8 +337,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -363,6 +363,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -370,23 +378,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,30 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,17 +459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,6 +476,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -471,7 +493,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,26 +507,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -512,17 +523,6 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -545,187 +545,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,21 +770,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -799,26 +784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,6 +798,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,8 +835,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,10 +874,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -886,7 +886,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,124 +895,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1390,7 +1390,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
